--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v1.1.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v1.1.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="134">
   <si>
     <t xml:space="preserve">Lista suspensa: V ou F</t>
   </si>
@@ -483,6 +483,9 @@
   <si>
     <t xml:space="preserve">INICIATIVA 3</t>
   </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
 </sst>
 </file>
 
@@ -574,7 +577,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,7 +587,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7574"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -615,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -743,7 +752,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,6 +997,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,7 +1053,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1132,7 +1145,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF003366"/>
@@ -1161,17 +1174,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,22 +1311,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,24 +1742,24 @@
       <c r="D18" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="82" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F18" s="82" t="n">
+      <c r="F18" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G18" s="58" t="n">
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>2</v>
       </c>
@@ -1774,24 +1787,24 @@
       <c r="D19" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="82" t="n">
+      <c r="E19" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" s="82" t="n">
+      <c r="F19" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G19" s="58" t="n">
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="n">
+      <c r="H19" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>2</v>
       </c>
@@ -1819,24 +1832,24 @@
       <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="82" t="n">
+      <c r="E20" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F20" s="82" t="n">
+      <c r="F20" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G20" s="58" t="n">
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>2</v>
       </c>
@@ -1864,24 +1877,24 @@
       <c r="D21" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="82" t="n">
+      <c r="E21" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" s="82" t="n">
+      <c r="F21" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G21" s="58" t="n">
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="76" t="n">
+      <c r="H21" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>2</v>
       </c>
@@ -1909,24 +1922,24 @@
       <c r="D22" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="82" t="n">
+      <c r="E22" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" s="82" t="n">
+      <c r="F22" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G22" s="58" t="n">
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="76" t="n">
+      <c r="H22" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>2</v>
       </c>
@@ -1954,24 +1967,24 @@
       <c r="D23" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" s="82" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G23" s="58" t="n">
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>2</v>
       </c>
@@ -1999,24 +2012,24 @@
       <c r="D24" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="82" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F24" s="82" t="n">
+      <c r="F24" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G24" s="58" t="n">
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="76" t="n">
+      <c r="H24" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>2</v>
       </c>
@@ -2044,24 +2057,24 @@
       <c r="D25" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="82" t="n">
+      <c r="E25" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F25" s="82" t="n">
+      <c r="F25" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G25" s="58" t="n">
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="H25" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>2</v>
       </c>
@@ -2089,24 +2102,24 @@
       <c r="D26" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="82" t="n">
+      <c r="E26" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" s="82" t="n">
+      <c r="F26" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G26" s="58" t="n">
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="76" t="n">
+      <c r="H26" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>2</v>
       </c>
@@ -2134,24 +2147,24 @@
       <c r="D27" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="82" t="n">
+      <c r="E27" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F27" s="82" t="n">
+      <c r="F27" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G27" s="58" t="n">
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>10</v>
       </c>
-      <c r="H27" s="76" t="n">
+      <c r="H27" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>2</v>
       </c>
@@ -2179,24 +2192,24 @@
       <c r="D28" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="n">
+      <c r="E28" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76" t="n">
+      <c r="H28" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -2228,24 +2241,24 @@
       <c r="D29" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="82" t="n">
+      <c r="E29" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F29" s="82" t="n">
+      <c r="F29" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G29" s="58" t="n">
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>10</v>
       </c>
-      <c r="H29" s="76" t="n">
+      <c r="H29" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>2</v>
       </c>
@@ -2273,24 +2286,24 @@
       <c r="D30" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="82" t="n">
+      <c r="E30" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F30" s="82" t="n">
+      <c r="F30" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G30" s="58" t="n">
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>10</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>2</v>
       </c>
@@ -2318,24 +2331,24 @@
       <c r="D31" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="82" t="n">
+      <c r="E31" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" s="82" t="n">
+      <c r="F31" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G31" s="58" t="n">
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="76" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>2</v>
       </c>
@@ -2363,24 +2376,24 @@
       <c r="D32" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="82" t="n">
+      <c r="E32" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F32" s="82" t="n">
+      <c r="F32" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G32" s="58" t="n">
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>10</v>
       </c>
-      <c r="H32" s="76" t="n">
+      <c r="H32" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>2</v>
       </c>
@@ -2408,24 +2421,24 @@
       <c r="D33" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="82" t="n">
+      <c r="E33" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F33" s="82" t="n">
+      <c r="F33" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G33" s="58" t="n">
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>10</v>
       </c>
-      <c r="H33" s="76" t="n">
+      <c r="H33" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>2</v>
       </c>
@@ -2441,10 +2454,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -2453,24 +2466,24 @@
       <c r="D34" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="82" t="n">
+      <c r="E34" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" s="82" t="n">
+      <c r="F34" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G34" s="58" t="n">
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>10</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>2</v>
       </c>
@@ -2486,32 +2499,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -2554,17 +2567,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -2592,7 +2605,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -2604,7 +2617,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -2616,7 +2629,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -2809,17 +2822,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -2847,7 +2860,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -2859,7 +2872,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -2874,8 +2887,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -3039,7 +3052,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -3107,22 +3120,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,24 +3551,24 @@
       <c r="D18" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="82" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F18" s="82" t="n">
+      <c r="F18" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G18" s="58" t="n">
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>2</v>
       </c>
@@ -3583,24 +3596,24 @@
       <c r="D19" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="82" t="n">
+      <c r="E19" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" s="82" t="n">
+      <c r="F19" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G19" s="58" t="n">
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="n">
+      <c r="H19" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>2</v>
       </c>
@@ -3628,24 +3641,24 @@
       <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="82" t="n">
+      <c r="E20" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F20" s="82" t="n">
+      <c r="F20" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G20" s="58" t="n">
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>2</v>
       </c>
@@ -3673,24 +3686,24 @@
       <c r="D21" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="82" t="n">
+      <c r="E21" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" s="82" t="n">
+      <c r="F21" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G21" s="58" t="n">
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="76" t="n">
+      <c r="H21" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>2</v>
       </c>
@@ -3718,24 +3731,24 @@
       <c r="D22" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="82" t="n">
+      <c r="E22" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" s="82" t="n">
+      <c r="F22" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G22" s="58" t="n">
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="76" t="n">
+      <c r="H22" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>2</v>
       </c>
@@ -3763,24 +3776,24 @@
       <c r="D23" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" s="82" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G23" s="58" t="n">
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>2</v>
       </c>
@@ -3808,24 +3821,24 @@
       <c r="D24" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="82" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F24" s="82" t="n">
+      <c r="F24" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G24" s="58" t="n">
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="76" t="n">
+      <c r="H24" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>2</v>
       </c>
@@ -3853,24 +3866,24 @@
       <c r="D25" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="82" t="n">
+      <c r="E25" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F25" s="82" t="n">
+      <c r="F25" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G25" s="58" t="n">
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="H25" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>2</v>
       </c>
@@ -3898,24 +3911,24 @@
       <c r="D26" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="82" t="n">
+      <c r="E26" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" s="82" t="n">
+      <c r="F26" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G26" s="58" t="n">
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="76" t="n">
+      <c r="H26" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>2</v>
       </c>
@@ -3943,24 +3956,24 @@
       <c r="D27" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="82" t="n">
+      <c r="E27" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F27" s="82" t="n">
+      <c r="F27" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G27" s="58" t="n">
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>10</v>
       </c>
-      <c r="H27" s="76" t="n">
+      <c r="H27" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>2</v>
       </c>
@@ -3988,24 +4001,24 @@
       <c r="D28" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="n">
+      <c r="E28" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76" t="n">
+      <c r="H28" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -4037,24 +4050,24 @@
       <c r="D29" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="82" t="n">
+      <c r="E29" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F29" s="82" t="n">
+      <c r="F29" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G29" s="58" t="n">
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>10</v>
       </c>
-      <c r="H29" s="76" t="n">
+      <c r="H29" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>2</v>
       </c>
@@ -4082,24 +4095,24 @@
       <c r="D30" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="82" t="n">
+      <c r="E30" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F30" s="82" t="n">
+      <c r="F30" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G30" s="58" t="n">
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>10</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>2</v>
       </c>
@@ -4127,24 +4140,24 @@
       <c r="D31" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="82" t="n">
+      <c r="E31" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" s="82" t="n">
+      <c r="F31" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G31" s="58" t="n">
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="76" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>2</v>
       </c>
@@ -4172,24 +4185,24 @@
       <c r="D32" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="82" t="n">
+      <c r="E32" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F32" s="82" t="n">
+      <c r="F32" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G32" s="58" t="n">
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>10</v>
       </c>
-      <c r="H32" s="76" t="n">
+      <c r="H32" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>2</v>
       </c>
@@ -4217,24 +4230,24 @@
       <c r="D33" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="82" t="n">
+      <c r="E33" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F33" s="82" t="n">
+      <c r="F33" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G33" s="58" t="n">
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>10</v>
       </c>
-      <c r="H33" s="76" t="n">
+      <c r="H33" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>2</v>
       </c>
@@ -4250,10 +4263,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -4262,24 +4275,24 @@
       <c r="D34" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="82" t="n">
+      <c r="E34" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" s="82" t="n">
+      <c r="F34" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G34" s="58" t="n">
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>10</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>2</v>
       </c>
@@ -4295,32 +4308,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -4363,17 +4376,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -4401,7 +4414,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -4413,7 +4426,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -4425,7 +4438,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -4618,17 +4631,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -4656,7 +4669,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -4668,7 +4681,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -4683,8 +4696,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -4848,7 +4861,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -4916,22 +4929,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,24 +5360,24 @@
       <c r="D18" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="82" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F18" s="82" t="n">
+      <c r="F18" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G18" s="58" t="n">
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>2</v>
       </c>
@@ -5392,24 +5405,24 @@
       <c r="D19" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="82" t="n">
+      <c r="E19" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" s="82" t="n">
+      <c r="F19" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G19" s="58" t="n">
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="n">
+      <c r="H19" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>2</v>
       </c>
@@ -5437,24 +5450,24 @@
       <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="82" t="n">
+      <c r="E20" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F20" s="82" t="n">
+      <c r="F20" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G20" s="58" t="n">
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>2</v>
       </c>
@@ -5482,24 +5495,24 @@
       <c r="D21" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="82" t="n">
+      <c r="E21" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" s="82" t="n">
+      <c r="F21" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G21" s="58" t="n">
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="76" t="n">
+      <c r="H21" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>2</v>
       </c>
@@ -5527,24 +5540,24 @@
       <c r="D22" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="82" t="n">
+      <c r="E22" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" s="82" t="n">
+      <c r="F22" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G22" s="58" t="n">
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="76" t="n">
+      <c r="H22" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>2</v>
       </c>
@@ -5572,24 +5585,24 @@
       <c r="D23" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" s="82" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G23" s="58" t="n">
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>2</v>
       </c>
@@ -5617,24 +5630,24 @@
       <c r="D24" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="82" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F24" s="82" t="n">
+      <c r="F24" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G24" s="58" t="n">
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="76" t="n">
+      <c r="H24" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>2</v>
       </c>
@@ -5662,24 +5675,24 @@
       <c r="D25" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="82" t="n">
+      <c r="E25" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F25" s="82" t="n">
+      <c r="F25" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G25" s="58" t="n">
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="H25" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>2</v>
       </c>
@@ -5707,24 +5720,24 @@
       <c r="D26" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="82" t="n">
+      <c r="E26" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" s="82" t="n">
+      <c r="F26" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G26" s="58" t="n">
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="76" t="n">
+      <c r="H26" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>2</v>
       </c>
@@ -5752,24 +5765,24 @@
       <c r="D27" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="82" t="n">
+      <c r="E27" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F27" s="82" t="n">
+      <c r="F27" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G27" s="58" t="n">
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>10</v>
       </c>
-      <c r="H27" s="76" t="n">
+      <c r="H27" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>2</v>
       </c>
@@ -5797,24 +5810,24 @@
       <c r="D28" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="n">
+      <c r="E28" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76" t="n">
+      <c r="H28" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -5846,24 +5859,24 @@
       <c r="D29" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="82" t="n">
+      <c r="E29" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F29" s="82" t="n">
+      <c r="F29" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G29" s="58" t="n">
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>10</v>
       </c>
-      <c r="H29" s="76" t="n">
+      <c r="H29" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>2</v>
       </c>
@@ -5891,24 +5904,24 @@
       <c r="D30" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="82" t="n">
+      <c r="E30" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F30" s="82" t="n">
+      <c r="F30" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G30" s="58" t="n">
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>10</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>2</v>
       </c>
@@ -5936,24 +5949,24 @@
       <c r="D31" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="82" t="n">
+      <c r="E31" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" s="82" t="n">
+      <c r="F31" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G31" s="58" t="n">
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="76" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>2</v>
       </c>
@@ -5981,24 +5994,24 @@
       <c r="D32" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="82" t="n">
+      <c r="E32" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F32" s="82" t="n">
+      <c r="F32" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G32" s="58" t="n">
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>10</v>
       </c>
-      <c r="H32" s="76" t="n">
+      <c r="H32" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>2</v>
       </c>
@@ -6026,24 +6039,24 @@
       <c r="D33" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="82" t="n">
+      <c r="E33" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F33" s="82" t="n">
+      <c r="F33" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G33" s="58" t="n">
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>10</v>
       </c>
-      <c r="H33" s="76" t="n">
+      <c r="H33" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>2</v>
       </c>
@@ -6059,10 +6072,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -6071,24 +6084,24 @@
       <c r="D34" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="82" t="n">
+      <c r="E34" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" s="82" t="n">
+      <c r="F34" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G34" s="58" t="n">
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>10</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>2</v>
       </c>
@@ -6104,32 +6117,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -6172,17 +6185,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -6210,7 +6223,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -6222,7 +6235,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -6234,7 +6247,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -6427,17 +6440,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -6465,7 +6478,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -6477,7 +6490,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -6492,8 +6505,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -6657,7 +6670,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -6725,22 +6738,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,24 +7169,24 @@
       <c r="D18" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="82" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F18" s="82" t="n">
+      <c r="F18" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G18" s="58" t="n">
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>2</v>
       </c>
@@ -7201,24 +7214,24 @@
       <c r="D19" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="82" t="n">
+      <c r="E19" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" s="82" t="n">
+      <c r="F19" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G19" s="58" t="n">
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="n">
+      <c r="H19" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>2</v>
       </c>
@@ -7246,24 +7259,24 @@
       <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="82" t="n">
+      <c r="E20" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F20" s="82" t="n">
+      <c r="F20" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G20" s="58" t="n">
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>2</v>
       </c>
@@ -7291,24 +7304,24 @@
       <c r="D21" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="82" t="n">
+      <c r="E21" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" s="82" t="n">
+      <c r="F21" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G21" s="58" t="n">
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="76" t="n">
+      <c r="H21" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>2</v>
       </c>
@@ -7336,24 +7349,24 @@
       <c r="D22" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="82" t="n">
+      <c r="E22" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" s="82" t="n">
+      <c r="F22" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G22" s="58" t="n">
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="76" t="n">
+      <c r="H22" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>2</v>
       </c>
@@ -7381,24 +7394,24 @@
       <c r="D23" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" s="82" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G23" s="58" t="n">
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>2</v>
       </c>
@@ -7426,24 +7439,24 @@
       <c r="D24" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="82" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F24" s="82" t="n">
+      <c r="F24" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G24" s="58" t="n">
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="76" t="n">
+      <c r="H24" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>2</v>
       </c>
@@ -7471,24 +7484,24 @@
       <c r="D25" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="82" t="n">
+      <c r="E25" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F25" s="82" t="n">
+      <c r="F25" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G25" s="58" t="n">
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="H25" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>2</v>
       </c>
@@ -7516,24 +7529,24 @@
       <c r="D26" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="82" t="n">
+      <c r="E26" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" s="82" t="n">
+      <c r="F26" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G26" s="58" t="n">
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="76" t="n">
+      <c r="H26" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>2</v>
       </c>
@@ -7561,24 +7574,24 @@
       <c r="D27" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="82" t="n">
+      <c r="E27" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F27" s="82" t="n">
+      <c r="F27" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G27" s="58" t="n">
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>10</v>
       </c>
-      <c r="H27" s="76" t="n">
+      <c r="H27" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>2</v>
       </c>
@@ -7606,24 +7619,24 @@
       <c r="D28" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="n">
+      <c r="E28" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76" t="n">
+      <c r="H28" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -7655,24 +7668,24 @@
       <c r="D29" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="82" t="n">
+      <c r="E29" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F29" s="82" t="n">
+      <c r="F29" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G29" s="58" t="n">
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>10</v>
       </c>
-      <c r="H29" s="76" t="n">
+      <c r="H29" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>2</v>
       </c>
@@ -7700,24 +7713,24 @@
       <c r="D30" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="82" t="n">
+      <c r="E30" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F30" s="82" t="n">
+      <c r="F30" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G30" s="58" t="n">
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>10</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>2</v>
       </c>
@@ -7745,24 +7758,24 @@
       <c r="D31" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="82" t="n">
+      <c r="E31" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" s="82" t="n">
+      <c r="F31" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G31" s="58" t="n">
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="76" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>2</v>
       </c>
@@ -7790,24 +7803,24 @@
       <c r="D32" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="82" t="n">
+      <c r="E32" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F32" s="82" t="n">
+      <c r="F32" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G32" s="58" t="n">
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>10</v>
       </c>
-      <c r="H32" s="76" t="n">
+      <c r="H32" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>2</v>
       </c>
@@ -7835,24 +7848,24 @@
       <c r="D33" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="82" t="n">
+      <c r="E33" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F33" s="82" t="n">
+      <c r="F33" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G33" s="58" t="n">
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>10</v>
       </c>
-      <c r="H33" s="76" t="n">
+      <c r="H33" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>2</v>
       </c>
@@ -7868,10 +7881,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -7880,24 +7893,24 @@
       <c r="D34" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="82" t="n">
+      <c r="E34" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" s="82" t="n">
+      <c r="F34" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G34" s="58" t="n">
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>10</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>2</v>
       </c>
@@ -7913,32 +7926,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -7981,17 +7994,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -8019,7 +8032,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -8031,7 +8044,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -8043,7 +8056,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -8236,17 +8249,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -8274,7 +8287,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -8286,7 +8299,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -8301,8 +8314,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -8466,7 +8479,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -8534,18 +8547,18 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15891,24 +15904,24 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="17" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.3010204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="17" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16378,22 +16391,22 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I55" activeCellId="0" sqref="I55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16977,7 +16990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
         <v>73</v>
       </c>
@@ -17015,12 +17028,25 @@
         <f aca="false">IFERROR(IF(I22="Média",(1-(J22/G22))*F22,(1-(J22/G22))*E22),0)</f>
         <v>0.00859897593549085</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
+      <c r="L22" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N22" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="61" t="n">
+        <f aca="false">L22*(1-H22)</f>
+        <v>2</v>
+      </c>
+      <c r="P22" s="61" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q22" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="R22" s="0" t="n">
         <v>2</v>
       </c>
@@ -17072,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
         <v>75</v>
       </c>
@@ -17260,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="s">
         <v>79</v>
       </c>
@@ -17297,17 +17323,22 @@
         <f aca="false">IFERROR(IF(I28="Média",(1-(J28/G28))*F28,(1-(J28/G28))*E28),0)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="57" t="n">
+        <v>0.0133333333333333</v>
+      </c>
       <c r="M28" s="59"/>
       <c r="N28" s="59"/>
-      <c r="O28" s="58"/>
+      <c r="O28" s="61" t="n">
+        <f aca="false">L28*(1-H28)</f>
+        <v>0.0126666666666666</v>
+      </c>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="0" t="n">
         <v>0.0133333333333333</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
         <v>80</v>
       </c>
@@ -17543,10 +17574,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -17590,32 +17621,32 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -17658,17 +17689,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -17696,7 +17727,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -17708,7 +17739,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -17720,7 +17751,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27" t="n">
@@ -17953,17 +17984,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -17991,7 +18022,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -18003,7 +18034,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -18018,8 +18049,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -18102,8 +18133,8 @@
       <c r="C55" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="27" t="n">
         <v>0</v>
       </c>
@@ -18139,8 +18170,8 @@
       <c r="C56" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="27" t="n">
         <v>0</v>
       </c>
@@ -18204,11 +18235,11 @@
       <c r="B58" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="27" t="n">
         <v>0</v>
       </c>
@@ -18278,22 +18309,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="I56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18701,14 +18732,14 @@
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.02</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>0.02</v>
       </c>
@@ -18746,14 +18777,14 @@
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="77" t="str">
+      <c r="H19" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
       </c>
@@ -18791,14 +18822,14 @@
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>2</v>
       </c>
-      <c r="H20" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="77" t="str">
+      <c r="H20" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>0</v>
       </c>
@@ -18836,14 +18867,14 @@
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="77" t="str">
+      <c r="H21" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
       </c>
@@ -18858,7 +18889,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
         <v>73</v>
       </c>
@@ -18882,27 +18913,39 @@
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>4.4</v>
       </c>
-      <c r="H22" s="76" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I22" s="77" t="str">
+      <c r="H22" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
-        <v>0.088</v>
+        <v>0</v>
       </c>
       <c r="K22" s="56" t="n">
         <f aca="false">IFERROR(IF(I22="Média",(1-(J22/G22))*F22,(1-(J22/G22))*E22),0)</f>
-        <v>0.00842699641678103</v>
-      </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
+        <v>0.00859897593549085</v>
+      </c>
+      <c r="L22" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N22" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" s="61" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q22" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
@@ -18927,14 +18970,14 @@
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="77" t="str">
+      <c r="H23" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
       </c>
@@ -18972,14 +19015,14 @@
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="77" t="str">
+      <c r="H24" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>0</v>
       </c>
@@ -19017,14 +19060,14 @@
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>2</v>
       </c>
-      <c r="H25" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="77" t="str">
+      <c r="H25" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
       </c>
@@ -19062,14 +19105,14 @@
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77" t="str">
+      <c r="H26" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
       </c>
@@ -19107,14 +19150,14 @@
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="77" t="str">
+      <c r="H27" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
       </c>
@@ -19129,7 +19172,7 @@
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="s">
         <v>79</v>
       </c>
@@ -19153,14 +19196,14 @@
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0.2</v>
       </c>
-      <c r="H28" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="77" t="str">
+      <c r="H28" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -19168,10 +19211,15 @@
         <f aca="false">IFERROR(IF(I28="Média",(1-(J28/G28))*F28,(1-(J28/G28))*E28),0)</f>
         <v>0.000409976084728391</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="57" t="n">
+        <v>0.0133333333333333</v>
+      </c>
       <c r="M28" s="59"/>
       <c r="N28" s="59"/>
-      <c r="O28" s="58"/>
+      <c r="O28" s="61" t="n">
+        <f aca="false">L28*(1-H28)</f>
+        <v>0.0133333333333333</v>
+      </c>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
     </row>
@@ -19198,14 +19246,14 @@
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="77" t="str">
+      <c r="H29" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
       </c>
@@ -19243,14 +19291,14 @@
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>4.6</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.01</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>0.046</v>
       </c>
@@ -19288,14 +19336,14 @@
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="77" t="str">
+      <c r="H31" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
       </c>
@@ -19333,14 +19381,14 @@
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>20.8</v>
       </c>
-      <c r="H32" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="77" t="str">
+      <c r="H32" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>0</v>
       </c>
@@ -19378,14 +19426,14 @@
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>2</v>
       </c>
-      <c r="H33" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="77" t="str">
+      <c r="H33" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
       </c>
@@ -19401,10 +19449,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -19423,14 +19471,14 @@
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>664.56</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.01</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>6.6456</v>
       </c>
@@ -19446,32 +19494,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -19514,17 +19562,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -19552,7 +19600,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -19564,7 +19612,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -19576,7 +19624,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27" t="n">
@@ -19808,17 +19856,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -19846,7 +19894,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -19858,7 +19906,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -19873,8 +19921,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -20058,7 +20106,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -20134,22 +20182,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I55" activeCellId="0" sqref="I55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20566,14 +20614,14 @@
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="77" t="str">
+      <c r="H18" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>0</v>
       </c>
@@ -20611,14 +20659,14 @@
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="77" t="str">
+      <c r="H19" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
       </c>
@@ -20656,14 +20704,14 @@
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>2</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.3</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>0.6</v>
       </c>
@@ -20701,14 +20749,14 @@
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="77" t="str">
+      <c r="H21" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
       </c>
@@ -20723,7 +20771,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
         <v>73</v>
       </c>
@@ -20747,14 +20795,14 @@
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>4.4</v>
       </c>
-      <c r="H22" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="77" t="str">
+      <c r="H22" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>0</v>
       </c>
@@ -20762,12 +20810,24 @@
         <f aca="false">IFERROR(IF(I22="Média",(1-(J22/G22))*F22,(1-(J22/G22))*E22),0)</f>
         <v>0.00859897593549085</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
+      <c r="L22" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N22" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" s="61" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q22" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
@@ -20792,14 +20852,14 @@
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="77" t="str">
+      <c r="H23" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
       </c>
@@ -20814,7 +20874,7 @@
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
         <v>75</v>
       </c>
@@ -20837,20 +20897,20 @@
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="77" t="str">
+      <c r="H24" s="77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="K24" s="56" t="n">
         <f aca="false">IFERROR(IF(I24="Média",(1-(J24/G24))*F24,(1-(J24/G24))*E24),0)</f>
-        <v>0</v>
+        <v>0.0331415420023015</v>
       </c>
       <c r="L24" s="57"/>
       <c r="M24" s="57"/>
@@ -20882,14 +20942,14 @@
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>2</v>
       </c>
-      <c r="H25" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="77" t="str">
+      <c r="H25" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
       </c>
@@ -20927,14 +20987,14 @@
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77" t="str">
+      <c r="H26" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
       </c>
@@ -20972,14 +21032,14 @@
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="77" t="str">
+      <c r="H27" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
       </c>
@@ -20994,7 +21054,7 @@
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="s">
         <v>79</v>
       </c>
@@ -21018,14 +21078,14 @@
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0.2</v>
       </c>
-      <c r="H28" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="77" t="str">
+      <c r="H28" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -21033,10 +21093,15 @@
         <f aca="false">IFERROR(IF(I28="Média",(1-(J28/G28))*F28,(1-(J28/G28))*E28),0)</f>
         <v>0.000409976084728391</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="57" t="n">
+        <v>0.0133333333333333</v>
+      </c>
       <c r="M28" s="59"/>
       <c r="N28" s="59"/>
-      <c r="O28" s="58"/>
+      <c r="O28" s="61" t="n">
+        <f aca="false">L28*(1-H28)</f>
+        <v>0.0133333333333333</v>
+      </c>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
     </row>
@@ -21063,14 +21128,14 @@
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="77" t="str">
+      <c r="H29" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
       </c>
@@ -21108,14 +21173,14 @@
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>4.6</v>
       </c>
-      <c r="H30" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="77" t="str">
+      <c r="H30" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>0</v>
       </c>
@@ -21153,14 +21218,14 @@
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="77" t="str">
+      <c r="H31" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
       </c>
@@ -21175,7 +21240,7 @@
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48" t="s">
         <v>83</v>
       </c>
@@ -21194,24 +21259,23 @@
       <c r="F32" s="51" t="n">
         <v>0.0405481549027419</v>
       </c>
-      <c r="G32" s="52" t="n">
-        <f aca="false">IF(I32="Média",D32,C32)</f>
-        <v>20.8</v>
-      </c>
-      <c r="H32" s="76" t="n">
+      <c r="G32" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="77" t="n">
         <v>0.15</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="e">
         <f aca="false">G32*H32</f>
-        <v>3.12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K32" s="56" t="n">
         <f aca="false">IFERROR(IF(I32="Média",(1-(J32/G32))*F32,(1-(J32/G32))*E32),0)</f>
-        <v>0.0344659316673306</v>
+        <v>0</v>
       </c>
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
@@ -21243,14 +21307,14 @@
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>2</v>
       </c>
-      <c r="H33" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="77" t="str">
+      <c r="H33" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
       </c>
@@ -21266,10 +21330,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -21288,14 +21352,14 @@
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>664.56</v>
       </c>
-      <c r="H34" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="77" t="str">
+      <c r="H34" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>0</v>
       </c>
@@ -21311,32 +21375,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -21379,17 +21443,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -21417,7 +21481,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -21429,7 +21493,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -21441,7 +21505,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27" t="n">
@@ -21674,17 +21738,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -21712,7 +21776,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -21724,7 +21788,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -21739,8 +21803,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -21922,7 +21986,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -21996,22 +22060,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22437,14 +22501,14 @@
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="77" t="str">
+      <c r="H18" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>0</v>
       </c>
@@ -22482,14 +22546,14 @@
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="77" t="str">
+      <c r="H19" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
       </c>
@@ -22527,14 +22591,14 @@
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>2</v>
       </c>
-      <c r="H20" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="77" t="str">
+      <c r="H20" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>0</v>
       </c>
@@ -22572,14 +22636,14 @@
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="77" t="str">
+      <c r="H21" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
       </c>
@@ -22618,14 +22682,14 @@
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>4.4</v>
       </c>
-      <c r="H22" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="77" t="str">
+      <c r="H22" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>0</v>
       </c>
@@ -22663,14 +22727,14 @@
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="77" t="str">
+      <c r="H23" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
       </c>
@@ -22708,14 +22772,14 @@
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="77" t="str">
+      <c r="H24" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>0</v>
       </c>
@@ -22753,14 +22817,14 @@
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>2</v>
       </c>
-      <c r="H25" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="77" t="str">
+      <c r="H25" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
       </c>
@@ -22798,14 +22862,14 @@
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77" t="str">
+      <c r="H26" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
       </c>
@@ -22843,14 +22907,14 @@
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="77" t="str">
+      <c r="H27" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
       </c>
@@ -22865,7 +22929,7 @@
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="s">
         <v>79</v>
       </c>
@@ -22889,14 +22953,14 @@
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0.2</v>
       </c>
-      <c r="H28" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="77" t="str">
+      <c r="H28" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -22904,10 +22968,15 @@
         <f aca="false">IFERROR(IF(I28="Média",(1-(J28/G28))*F28,(1-(J28/G28))*E28),0)</f>
         <v>0.000409976084728391</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="57" t="n">
+        <v>0.0133333333333333</v>
+      </c>
       <c r="M28" s="59"/>
       <c r="N28" s="59"/>
-      <c r="O28" s="58"/>
+      <c r="O28" s="58" t="n">
+        <f aca="false">L28*(1-H28)</f>
+        <v>0.0133333333333333</v>
+      </c>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
     </row>
@@ -22934,14 +23003,14 @@
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="77" t="str">
+      <c r="H29" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
       </c>
@@ -22979,14 +23048,14 @@
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>4.6</v>
       </c>
-      <c r="H30" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="77" t="str">
+      <c r="H30" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>0</v>
       </c>
@@ -23024,14 +23093,14 @@
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="77" t="str">
+      <c r="H31" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
       </c>
@@ -23069,14 +23138,14 @@
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>20.8</v>
       </c>
-      <c r="H32" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="77" t="str">
+      <c r="H32" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>0</v>
       </c>
@@ -23114,14 +23183,14 @@
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>2</v>
       </c>
-      <c r="H33" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="77" t="str">
+      <c r="H33" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
       </c>
@@ -23137,10 +23206,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -23159,14 +23228,14 @@
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>664.56</v>
       </c>
-      <c r="H34" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="77" t="str">
+      <c r="H34" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>0</v>
       </c>
@@ -23182,32 +23251,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -23250,17 +23319,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -23288,7 +23357,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -23300,7 +23369,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -23312,7 +23381,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -23505,17 +23574,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -23543,7 +23612,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -23555,7 +23624,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -23570,8 +23639,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -23735,7 +23804,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -23803,22 +23872,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24234,24 +24303,24 @@
       <c r="D18" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="82" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F18" s="82" t="n">
+      <c r="F18" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G18" s="58" t="n">
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>2</v>
       </c>
@@ -24279,24 +24348,24 @@
       <c r="D19" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="82" t="n">
+      <c r="E19" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" s="82" t="n">
+      <c r="F19" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G19" s="58" t="n">
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="n">
+      <c r="H19" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>2</v>
       </c>
@@ -24324,24 +24393,24 @@
       <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="82" t="n">
+      <c r="E20" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F20" s="82" t="n">
+      <c r="F20" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G20" s="58" t="n">
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>2</v>
       </c>
@@ -24369,24 +24438,24 @@
       <c r="D21" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="82" t="n">
+      <c r="E21" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" s="82" t="n">
+      <c r="F21" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G21" s="58" t="n">
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="76" t="n">
+      <c r="H21" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>2</v>
       </c>
@@ -24414,24 +24483,24 @@
       <c r="D22" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="82" t="n">
+      <c r="E22" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" s="82" t="n">
+      <c r="F22" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G22" s="58" t="n">
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="76" t="n">
+      <c r="H22" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>2</v>
       </c>
@@ -24459,24 +24528,24 @@
       <c r="D23" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" s="82" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G23" s="58" t="n">
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>2</v>
       </c>
@@ -24504,24 +24573,24 @@
       <c r="D24" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="82" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F24" s="82" t="n">
+      <c r="F24" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G24" s="58" t="n">
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="76" t="n">
+      <c r="H24" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>2</v>
       </c>
@@ -24549,24 +24618,24 @@
       <c r="D25" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="82" t="n">
+      <c r="E25" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F25" s="82" t="n">
+      <c r="F25" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G25" s="58" t="n">
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="H25" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>2</v>
       </c>
@@ -24594,24 +24663,24 @@
       <c r="D26" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="82" t="n">
+      <c r="E26" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" s="82" t="n">
+      <c r="F26" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G26" s="58" t="n">
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="76" t="n">
+      <c r="H26" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>2</v>
       </c>
@@ -24639,24 +24708,24 @@
       <c r="D27" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="82" t="n">
+      <c r="E27" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F27" s="82" t="n">
+      <c r="F27" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G27" s="58" t="n">
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>10</v>
       </c>
-      <c r="H27" s="76" t="n">
+      <c r="H27" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>2</v>
       </c>
@@ -24684,24 +24753,24 @@
       <c r="D28" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="n">
+      <c r="E28" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76" t="n">
+      <c r="H28" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -24733,24 +24802,24 @@
       <c r="D29" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="82" t="n">
+      <c r="E29" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F29" s="82" t="n">
+      <c r="F29" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G29" s="58" t="n">
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>10</v>
       </c>
-      <c r="H29" s="76" t="n">
+      <c r="H29" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>2</v>
       </c>
@@ -24778,24 +24847,24 @@
       <c r="D30" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="82" t="n">
+      <c r="E30" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F30" s="82" t="n">
+      <c r="F30" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G30" s="58" t="n">
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>10</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>2</v>
       </c>
@@ -24823,24 +24892,24 @@
       <c r="D31" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="82" t="n">
+      <c r="E31" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" s="82" t="n">
+      <c r="F31" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G31" s="58" t="n">
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="76" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>2</v>
       </c>
@@ -24868,24 +24937,24 @@
       <c r="D32" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="82" t="n">
+      <c r="E32" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F32" s="82" t="n">
+      <c r="F32" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G32" s="58" t="n">
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>10</v>
       </c>
-      <c r="H32" s="76" t="n">
+      <c r="H32" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>2</v>
       </c>
@@ -24913,24 +24982,24 @@
       <c r="D33" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="82" t="n">
+      <c r="E33" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F33" s="82" t="n">
+      <c r="F33" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G33" s="58" t="n">
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>10</v>
       </c>
-      <c r="H33" s="76" t="n">
+      <c r="H33" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>2</v>
       </c>
@@ -24946,10 +25015,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -24958,24 +25027,24 @@
       <c r="D34" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="82" t="n">
+      <c r="E34" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" s="82" t="n">
+      <c r="F34" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G34" s="58" t="n">
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>10</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>2</v>
       </c>
@@ -24991,32 +25060,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -25059,17 +25128,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -25097,7 +25166,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -25109,7 +25178,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -25121,7 +25190,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -25314,17 +25383,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -25352,7 +25421,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -25364,7 +25433,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -25379,8 +25448,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -25544,7 +25613,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>
@@ -25612,22 +25681,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26043,24 +26112,24 @@
       <c r="D18" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="82" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F18" s="82" t="n">
+      <c r="F18" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G18" s="58" t="n">
         <f aca="false">IF(I18="Média",D18,C18)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="76" t="n">
+      <c r="H18" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="77" t="str">
+      <c r="I18" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I18</f>
         <v>Média</v>
       </c>
-      <c r="J18" s="77" t="n">
+      <c r="J18" s="78" t="n">
         <f aca="false">G18*H18</f>
         <v>2</v>
       </c>
@@ -26088,24 +26157,24 @@
       <c r="D19" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="82" t="n">
+      <c r="E19" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" s="82" t="n">
+      <c r="F19" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G19" s="58" t="n">
         <f aca="false">IF(I19="Média",D19,C19)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="n">
+      <c r="H19" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I19</f>
         <v>Média</v>
       </c>
-      <c r="J19" s="77" t="n">
+      <c r="J19" s="78" t="n">
         <f aca="false">G19*H19</f>
         <v>2</v>
       </c>
@@ -26133,24 +26202,24 @@
       <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="82" t="n">
+      <c r="E20" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F20" s="82" t="n">
+      <c r="F20" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G20" s="58" t="n">
         <f aca="false">IF(I20="Média",D20,C20)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="76" t="n">
+      <c r="H20" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77" t="str">
+      <c r="I20" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I20</f>
         <v>Média</v>
       </c>
-      <c r="J20" s="77" t="n">
+      <c r="J20" s="78" t="n">
         <f aca="false">G20*H20</f>
         <v>2</v>
       </c>
@@ -26178,24 +26247,24 @@
       <c r="D21" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="82" t="n">
+      <c r="E21" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" s="82" t="n">
+      <c r="F21" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G21" s="58" t="n">
         <f aca="false">IF(I21="Média",D21,C21)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="76" t="n">
+      <c r="H21" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I21</f>
         <v>Último Ano</v>
       </c>
-      <c r="J21" s="77" t="n">
+      <c r="J21" s="78" t="n">
         <f aca="false">G21*H21</f>
         <v>2</v>
       </c>
@@ -26223,24 +26292,24 @@
       <c r="D22" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="82" t="n">
+      <c r="E22" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" s="82" t="n">
+      <c r="F22" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G22" s="58" t="n">
         <f aca="false">IF(I22="Média",D22,C22)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="76" t="n">
+      <c r="H22" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I22</f>
         <v>Média</v>
       </c>
-      <c r="J22" s="77" t="n">
+      <c r="J22" s="78" t="n">
         <f aca="false">G22*H22</f>
         <v>2</v>
       </c>
@@ -26268,24 +26337,24 @@
       <c r="D23" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" s="82" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G23" s="58" t="n">
         <f aca="false">IF(I23="Média",D23,C23)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I23</f>
         <v>Média</v>
       </c>
-      <c r="J23" s="77" t="n">
+      <c r="J23" s="78" t="n">
         <f aca="false">G23*H23</f>
         <v>2</v>
       </c>
@@ -26313,24 +26382,24 @@
       <c r="D24" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="82" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F24" s="82" t="n">
+      <c r="F24" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G24" s="58" t="n">
         <f aca="false">IF(I24="Média",D24,C24)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="76" t="n">
+      <c r="H24" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I24</f>
         <v>Último Ano</v>
       </c>
-      <c r="J24" s="77" t="n">
+      <c r="J24" s="78" t="n">
         <f aca="false">G24*H24</f>
         <v>2</v>
       </c>
@@ -26358,24 +26427,24 @@
       <c r="D25" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="82" t="n">
+      <c r="E25" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F25" s="82" t="n">
+      <c r="F25" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G25" s="58" t="n">
         <f aca="false">IF(I25="Média",D25,C25)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="H25" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I25</f>
         <v>Último Ano</v>
       </c>
-      <c r="J25" s="77" t="n">
+      <c r="J25" s="78" t="n">
         <f aca="false">G25*H25</f>
         <v>2</v>
       </c>
@@ -26403,24 +26472,24 @@
       <c r="D26" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="82" t="n">
+      <c r="E26" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" s="82" t="n">
+      <c r="F26" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G26" s="58" t="n">
         <f aca="false">IF(I26="Média",D26,C26)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="76" t="n">
+      <c r="H26" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I26</f>
         <v>Média</v>
       </c>
-      <c r="J26" s="77" t="n">
+      <c r="J26" s="78" t="n">
         <f aca="false">G26*H26</f>
         <v>2</v>
       </c>
@@ -26448,24 +26517,24 @@
       <c r="D27" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="82" t="n">
+      <c r="E27" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F27" s="82" t="n">
+      <c r="F27" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G27" s="58" t="n">
         <f aca="false">IF(I27="Média",D27,C27)</f>
         <v>10</v>
       </c>
-      <c r="H27" s="76" t="n">
+      <c r="H27" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I27</f>
         <v>Média</v>
       </c>
-      <c r="J27" s="77" t="n">
+      <c r="J27" s="78" t="n">
         <f aca="false">G27*H27</f>
         <v>2</v>
       </c>
@@ -26493,24 +26562,24 @@
       <c r="D28" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="n">
+      <c r="E28" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">IF(I28="Média",D28,C28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76" t="n">
+      <c r="H28" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I28</f>
         <v>Média</v>
       </c>
-      <c r="J28" s="77" t="n">
+      <c r="J28" s="78" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
@@ -26542,24 +26611,24 @@
       <c r="D29" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="82" t="n">
+      <c r="E29" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F29" s="82" t="n">
+      <c r="F29" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G29" s="58" t="n">
         <f aca="false">IF(I29="Média",D29,C29)</f>
         <v>10</v>
       </c>
-      <c r="H29" s="76" t="n">
+      <c r="H29" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I29</f>
         <v>Média</v>
       </c>
-      <c r="J29" s="77" t="n">
+      <c r="J29" s="78" t="n">
         <f aca="false">G29*H29</f>
         <v>2</v>
       </c>
@@ -26587,24 +26656,24 @@
       <c r="D30" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="82" t="n">
+      <c r="E30" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F30" s="82" t="n">
+      <c r="F30" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G30" s="58" t="n">
         <f aca="false">IF(I30="Média",D30,C30)</f>
         <v>10</v>
       </c>
-      <c r="H30" s="76" t="n">
+      <c r="H30" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I30</f>
         <v>Média</v>
       </c>
-      <c r="J30" s="77" t="n">
+      <c r="J30" s="78" t="n">
         <f aca="false">G30*H30</f>
         <v>2</v>
       </c>
@@ -26632,24 +26701,24 @@
       <c r="D31" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="82" t="n">
+      <c r="E31" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" s="82" t="n">
+      <c r="F31" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G31" s="58" t="n">
         <f aca="false">IF(I31="Média",D31,C31)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="76" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I31</f>
         <v>Média</v>
       </c>
-      <c r="J31" s="77" t="n">
+      <c r="J31" s="78" t="n">
         <f aca="false">G31*H31</f>
         <v>2</v>
       </c>
@@ -26677,24 +26746,24 @@
       <c r="D32" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="82" t="n">
+      <c r="E32" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F32" s="82" t="n">
+      <c r="F32" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G32" s="58" t="n">
         <f aca="false">IF(I32="Média",D32,C32)</f>
         <v>10</v>
       </c>
-      <c r="H32" s="76" t="n">
+      <c r="H32" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="77" t="n">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
         <v>2</v>
       </c>
@@ -26722,24 +26791,24 @@
       <c r="D33" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="82" t="n">
+      <c r="E33" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F33" s="82" t="n">
+      <c r="F33" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G33" s="58" t="n">
         <f aca="false">IF(I33="Média",D33,C33)</f>
         <v>10</v>
       </c>
-      <c r="H33" s="76" t="n">
+      <c r="H33" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I33</f>
         <v>Média</v>
       </c>
-      <c r="J33" s="77" t="n">
+      <c r="J33" s="78" t="n">
         <f aca="false">G33*H33</f>
         <v>2</v>
       </c>
@@ -26755,10 +26824,10 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="49" t="n">
@@ -26767,24 +26836,24 @@
       <c r="D34" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="82" t="n">
+      <c r="E34" s="83" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" s="82" t="n">
+      <c r="F34" s="83" t="n">
         <v>0.15</v>
       </c>
       <c r="G34" s="58" t="n">
         <f aca="false">IF(I34="Média",D34,C34)</f>
         <v>10</v>
       </c>
-      <c r="H34" s="76" t="n">
+      <c r="H34" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="78" t="str">
         <f aca="false">'Iniciativa 1'!I34</f>
         <v>Último Ano</v>
       </c>
-      <c r="J34" s="77" t="n">
+      <c r="J34" s="78" t="n">
         <f aca="false">G34*H34</f>
         <v>2</v>
       </c>
@@ -26800,32 +26869,32 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
     </row>
@@ -26868,17 +26937,17 @@
         <v>55</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="22"/>
@@ -26906,7 +26975,7 @@
       <c r="G40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="39" t="s">
@@ -26918,7 +26987,7 @@
       <c r="K40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="0"/>
@@ -26930,7 +26999,7 @@
       <c r="B41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="27"/>
@@ -27123,17 +27192,17 @@
         <v>55</v>
       </c>
       <c r="E50" s="39"/>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69" t="s">
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="22"/>
@@ -27161,7 +27230,7 @@
       <c r="G51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="I51" s="39" t="s">
@@ -27173,7 +27242,7 @@
       <c r="K51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="71" t="s">
+      <c r="L51" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="0"/>
@@ -27188,8 +27257,8 @@
       <c r="C52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -27353,7 +27422,7 @@
       <c r="B58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27"/>

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v1.1.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,8 +26,8 @@
     <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="aaaa" vbProcedure="false">[1]Configs!$D$2</definedName>
-    <definedName function="false" hidden="false" name="AAAAAA" vbProcedure="false">[1]Configs!$C$2</definedName>
+    <definedName function="false" hidden="false" name="aaaa" vbProcedure="false">[2]Configs!$D$2</definedName>
+    <definedName function="false" hidden="false" name="AAAAAA" vbProcedure="false">[2]Configs!$C$2</definedName>
     <definedName function="false" hidden="false" name="Anos_a_Serem_Simulados" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Ano_Inicial" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="CategoriaSAT" vbProcedure="false">#REF!</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="133">
   <si>
     <t xml:space="preserve">Lista suspensa: V ou F</t>
   </si>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">INICIATIVA 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1158,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -1174,17 +1171,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,22 +1308,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,22 +3117,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,22 +4926,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,22 +6735,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8547,18 +8544,18 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="54.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15904,24 +15901,24 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="17" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="17" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16067,7 +16064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="28" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
         <v>35</v>
       </c>
@@ -16082,10 +16079,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="27" t="n">
         <v>0</v>
@@ -16391,22 +16388,22 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18309,22 +18306,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20182,22 +20179,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21259,8 +21256,9 @@
       <c r="F32" s="51" t="n">
         <v>0.0405481549027419</v>
       </c>
-      <c r="G32" s="52" t="s">
-        <v>133</v>
+      <c r="G32" s="52" t="n">
+        <f aca="false">IF(I32="Média",D32,C32)</f>
+        <v>20.8</v>
       </c>
       <c r="H32" s="77" t="n">
         <v>0.15</v>
@@ -21269,13 +21267,13 @@
         <f aca="false">'Iniciativa 1'!I32</f>
         <v>Média</v>
       </c>
-      <c r="J32" s="78" t="e">
+      <c r="J32" s="78" t="n">
         <f aca="false">G32*H32</f>
-        <v>#VALUE!</v>
+        <v>3.12</v>
       </c>
       <c r="K32" s="56" t="n">
         <f aca="false">IFERROR(IF(I32="Média",(1-(J32/G32))*F32,(1-(J32/G32))*E32),0)</f>
-        <v>0</v>
+        <v>0.0344659316673306</v>
       </c>
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
@@ -22060,22 +22058,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23872,22 +23870,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25681,22 +25679,22 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="17" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
